--- a/data-structures-algorithms/practice_sheet.xlsx
+++ b/data-structures-algorithms/practice_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Question Heading</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t xml:space="preserve">solve for O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Product Difference Between Two Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-product-difference-between-two-pairs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solved in nlogn time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solve for O(n) time</t>
   </si>
 </sst>
 </file>
@@ -74,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,6 +108,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,16 +183,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.96"/>
@@ -235,10 +249,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/pascals-triangle-ii/"/>
     <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/shuffle-the-array/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/maximum-product-difference-between-two-pairs/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data-structures-algorithms/practice_sheet.xlsx
+++ b/data-structures-algorithms/practice_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Question Heading</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">solve for O(n) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/add-to-array-form-of-integer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays Medium Questions Community Classroom Assignment</t>
   </si>
 </sst>
 </file>
@@ -183,16 +198,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.96"/>
@@ -266,11 +281,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/pascals-triangle-ii/"/>
     <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/shuffle-the-array/"/>
     <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/maximum-product-difference-between-two-pairs/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/add-to-array-form-of-integer/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data-structures-algorithms/practice_sheet.xlsx
+++ b/data-structures-algorithms/practice_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Question Heading</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/add-to-array-form-of-integer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search rotated sorted array 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/search-in-rotated-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not able to solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find peak element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-peak-element/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not able to solve in O(logn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/implement-strstr/</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays Medium Questions Community Classroom Assignment</t>
@@ -96,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,6 +142,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -168,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,6 +206,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,10 +233,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.08"/>
@@ -297,9 +329,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -309,6 +374,8 @@
     <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/maximum-product-difference-between-two-pairs/"/>
     <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/rotate-image/"/>
     <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/add-to-array-form-of-integer/"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://leetcode.com/problems/find-peak-element/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data-structures-algorithms/practice_sheet.xlsx
+++ b/data-structures-algorithms/practice_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Question Heading</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/implement-strstr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/long-pressed-name/</t>
   </si>
   <si>
     <t xml:space="preserve">Arrays Medium Questions Community Classroom Assignment</t>
@@ -233,10 +236,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.08"/>
@@ -362,9 +365,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -376,6 +384,7 @@
     <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/add-to-array-form-of-integer/"/>
     <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
     <hyperlink ref="B8" r:id="rId7" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/long-pressed-name/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
